--- a/JK_DataExploration/featureAnalysis.xlsx
+++ b/JK_DataExploration/featureAnalysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkaplan/Desktop/NYCDSA/ML_project/JK_DataExploration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkaplan/Desktop/NYCDSA/ML_project/IowaHousingMachineLearningProject/JK_DataExploration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{272A0FEA-4715-4344-B8CE-BC1B05AFA57F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DA0B6D06-3194-8D48-9CBB-E9E6FA15C847}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3980" yWindow="3060" windowWidth="26840" windowHeight="15940" xr2:uid="{704CAA6A-0944-CC4A-859F-40CDAC5AE5C9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>MSSubClass</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>datatype</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -679,6 +682,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">

--- a/JK_DataExploration/featureAnalysis.xlsx
+++ b/JK_DataExploration/featureAnalysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkaplan/Desktop/NYCDSA/ML_project/IowaHousingMachineLearningProject/JK_DataExploration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkaplan/Desktop/NYCDSA/ML_project/JK_DataExploration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DA0B6D06-3194-8D48-9CBB-E9E6FA15C847}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C5F22F22-257E-8149-83BA-5A280F1DFC8B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3980" yWindow="3060" windowWidth="26840" windowHeight="15940" xr2:uid="{704CAA6A-0944-CC4A-859F-40CDAC5AE5C9}"/>
   </bookViews>
@@ -642,7 +642,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AE8BC0-A957-374B-8094-12E7016DE9D6}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
